--- a/biology/Histoire de la zoologie et de la botanique/Krunoslav_Babić/Krunoslav_Babić.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Krunoslav_Babić/Krunoslav_Babić.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Krunoslav_Babi%C4%87</t>
+          <t>Krunoslav_Babić</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Krunoslav Babić est un zoologiste hongrois, né le 12 avril 1875 à Senj et mort le 4 mars 1953 à Rijeka.
 Il est zoologiste au muséum de Zagreb et s’intéresse notamment aux éponges de Méditerranée. Son fils est Ivo Babiç (1900-1977), professeur d’art vétérinaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Krunoslav_Babi%C4%87</t>
+          <t>Krunoslav_Babić</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1916 : Zur Kenntnis der Theneen. Zool. Jahrb. (Syst.) 40 : 389-408 pls 16-18.</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Krunoslav_Babi%C4%87</t>
+          <t>Krunoslav_Babić</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Bemon</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Krunoslav_Babi%C4%87</t>
+          <t>Krunoslav_Babić</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(hr) Liste de références
  Portail de l’histoire de la zoologie et de la botanique   Portail de la Hongrie                    </t>
